--- a/team_specific_matrix/Lindenwood_A.xlsx
+++ b/team_specific_matrix/Lindenwood_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2014925373134328</v>
+        <v>0.1951219512195122</v>
       </c>
       <c r="C2">
-        <v>0.5671641791044776</v>
+        <v>0.5701219512195121</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01119402985074627</v>
+        <v>0.01524390243902439</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1492537313432836</v>
+        <v>0.1432926829268293</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.0708955223880597</v>
+        <v>0.07621951219512195</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.03144654088050314</v>
+        <v>0.03553299492385787</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.006289308176100629</v>
+        <v>0.005076142131979695</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7547169811320755</v>
+        <v>0.7360406091370558</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2075471698113208</v>
+        <v>0.2233502538071066</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.02777777777777778</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6944444444444444</v>
+        <v>0.6862745098039216</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2777777777777778</v>
+        <v>0.2941176470588235</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.0546448087431694</v>
+        <v>0.05676855895196507</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01639344262295082</v>
+        <v>0.01310043668122271</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.07103825136612021</v>
+        <v>0.0611353711790393</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2131147540983606</v>
+        <v>0.2139737991266376</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.0273224043715847</v>
+        <v>0.03493449781659388</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.2131147540983606</v>
+        <v>0.2052401746724891</v>
       </c>
       <c r="R6">
-        <v>0.03825136612021858</v>
+        <v>0.03930131004366812</v>
       </c>
       <c r="S6">
-        <v>0.366120218579235</v>
+        <v>0.3755458515283843</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1025641025641026</v>
+        <v>0.0861244019138756</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01923076923076923</v>
+        <v>0.01913875598086124</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.07051282051282051</v>
+        <v>0.06220095693779904</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1538461538461539</v>
+        <v>0.138755980861244</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02564102564102564</v>
+        <v>0.03349282296650718</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1730769230769231</v>
+        <v>0.1626794258373206</v>
       </c>
       <c r="R7">
-        <v>0.0576923076923077</v>
+        <v>0.05741626794258373</v>
       </c>
       <c r="S7">
-        <v>0.3974358974358974</v>
+        <v>0.4401913875598086</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1514195583596215</v>
+        <v>0.1363636363636364</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01577287066246057</v>
+        <v>0.01674641148325359</v>
       </c>
       <c r="E8">
-        <v>0.003154574132492113</v>
+        <v>0.002392344497607655</v>
       </c>
       <c r="F8">
-        <v>0.0473186119873817</v>
+        <v>0.04066985645933014</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.09779179810725552</v>
+        <v>0.1028708133971292</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01892744479495268</v>
+        <v>0.01674641148325359</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1987381703470032</v>
+        <v>0.1961722488038277</v>
       </c>
       <c r="R8">
-        <v>0.05678233438485805</v>
+        <v>0.0645933014354067</v>
       </c>
       <c r="S8">
-        <v>0.4100946372239748</v>
+        <v>0.423444976076555</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.13125</v>
+        <v>0.1159420289855072</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.025</v>
+        <v>0.02415458937198068</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.05</v>
+        <v>0.06280193236714976</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.125</v>
+        <v>0.1304347826086956</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.025</v>
+        <v>0.02898550724637681</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1375</v>
+        <v>0.1400966183574879</v>
       </c>
       <c r="R9">
-        <v>0.06875000000000001</v>
+        <v>0.06280193236714976</v>
       </c>
       <c r="S9">
-        <v>0.4375</v>
+        <v>0.4347826086956522</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1298129812981298</v>
+        <v>0.1282271944922547</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.0253025302530253</v>
+        <v>0.02925989672977625</v>
       </c>
       <c r="E10">
-        <v>0.0011001100110011</v>
+        <v>0.0008605851979345956</v>
       </c>
       <c r="F10">
-        <v>0.0847084708470847</v>
+        <v>0.08433734939759036</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1034103410341034</v>
+        <v>0.09982788296041308</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.022002200220022</v>
+        <v>0.02237521514629948</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1925192519251925</v>
+        <v>0.1944922547332186</v>
       </c>
       <c r="R10">
-        <v>0.04400440044004401</v>
+        <v>0.04905335628227195</v>
       </c>
       <c r="S10">
-        <v>0.3971397139713971</v>
+        <v>0.3915662650602409</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1504065040650407</v>
+        <v>0.1598746081504702</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.0975609756097561</v>
+        <v>0.08463949843260188</v>
       </c>
       <c r="K11">
-        <v>0.2073170731707317</v>
+        <v>0.2068965517241379</v>
       </c>
       <c r="L11">
-        <v>0.524390243902439</v>
+        <v>0.5329153605015674</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.02032520325203252</v>
+        <v>0.01567398119122257</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.753731343283582</v>
+        <v>0.7542857142857143</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2014925373134328</v>
+        <v>0.2</v>
       </c>
       <c r="K12">
-        <v>0.007462686567164179</v>
+        <v>0.005714285714285714</v>
       </c>
       <c r="L12">
-        <v>0.007462686567164179</v>
+        <v>0.01714285714285714</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02985074626865672</v>
+        <v>0.02285714285714286</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7333333333333333</v>
+        <v>0.7804878048780488</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2666666666666667</v>
+        <v>0.2195121951219512</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.0189873417721519</v>
+        <v>0.02369668246445497</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1139240506329114</v>
+        <v>0.1232227488151659</v>
       </c>
       <c r="I15">
-        <v>0.06329113924050633</v>
+        <v>0.07582938388625593</v>
       </c>
       <c r="J15">
-        <v>0.3481012658227848</v>
+        <v>0.3270142180094787</v>
       </c>
       <c r="K15">
-        <v>0.0759493670886076</v>
+        <v>0.08530805687203792</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01265822784810127</v>
+        <v>0.009478672985781991</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.0379746835443038</v>
+        <v>0.04265402843601896</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.3291139240506329</v>
+        <v>0.3127962085308057</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01675977653631285</v>
+        <v>0.01357466063348416</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1173184357541899</v>
+        <v>0.1221719457013575</v>
       </c>
       <c r="I16">
-        <v>0.1173184357541899</v>
+        <v>0.1131221719457014</v>
       </c>
       <c r="J16">
-        <v>0.3966480446927375</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="K16">
-        <v>0.1229050279329609</v>
+        <v>0.1131221719457014</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.0111731843575419</v>
+        <v>0.01357466063348416</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.05586592178770949</v>
+        <v>0.04977375565610859</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1620111731843575</v>
+        <v>0.16289592760181</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01533742331288344</v>
+        <v>0.01678657074340528</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1871165644171779</v>
+        <v>0.1918465227817746</v>
       </c>
       <c r="I17">
-        <v>0.1073619631901841</v>
+        <v>0.1079136690647482</v>
       </c>
       <c r="J17">
-        <v>0.4141104294478528</v>
+        <v>0.4244604316546763</v>
       </c>
       <c r="K17">
-        <v>0.08588957055214724</v>
+        <v>0.08393285371702638</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01533742331288344</v>
+        <v>0.01918465227817746</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.04294478527607362</v>
+        <v>0.04556354916067146</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1319018404907975</v>
+        <v>0.1103117505995204</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.05681818181818182</v>
+        <v>0.04201680672268908</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2272727272727273</v>
+        <v>0.2184873949579832</v>
       </c>
       <c r="I18">
-        <v>0.1022727272727273</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="J18">
-        <v>0.3522727272727273</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="K18">
-        <v>0.09090909090909091</v>
+        <v>0.09243697478991597</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.03409090909090909</v>
+        <v>0.02521008403361345</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.06818181818181818</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.06818181818181818</v>
+        <v>0.09243697478991597</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02140672782874618</v>
+        <v>0.01974723538704581</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2048929663608563</v>
+        <v>0.2109004739336493</v>
       </c>
       <c r="I19">
-        <v>0.08664627930682976</v>
+        <v>0.08530805687203792</v>
       </c>
       <c r="J19">
-        <v>0.3679918450560652</v>
+        <v>0.3625592417061612</v>
       </c>
       <c r="K19">
-        <v>0.1243628950050968</v>
+        <v>0.1279620853080569</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01936799184505606</v>
+        <v>0.02132701421800948</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.06931702344546381</v>
+        <v>0.07109004739336493</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1060142711518858</v>
+        <v>0.1011058451816746</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Lindenwood_A.xlsx
+++ b/team_specific_matrix/Lindenwood_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1951219512195122</v>
+        <v>0.1898016997167139</v>
       </c>
       <c r="C2">
-        <v>0.5701219512195121</v>
+        <v>0.5864022662889519</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01524390243902439</v>
+        <v>0.0169971671388102</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1432926829268293</v>
+        <v>0.1359773371104816</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.07621951219512195</v>
+        <v>0.07082152974504249</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.03553299492385787</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.005076142131979695</v>
+        <v>0.004545454545454545</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7360406091370558</v>
+        <v>0.7181818181818181</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2233502538071066</v>
+        <v>0.2318181818181818</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0196078431372549</v>
+        <v>0.01886792452830189</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6862745098039216</v>
+        <v>0.6792452830188679</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2941176470588235</v>
+        <v>0.3018867924528302</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05676855895196507</v>
+        <v>0.0546875</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01310043668122271</v>
+        <v>0.01171875</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.0611353711790393</v>
+        <v>0.05859375</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2139737991266376</v>
+        <v>0.234375</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.03493449781659388</v>
+        <v>0.03125</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.2052401746724891</v>
+        <v>0.1953125</v>
       </c>
       <c r="R6">
-        <v>0.03930131004366812</v>
+        <v>0.046875</v>
       </c>
       <c r="S6">
-        <v>0.3755458515283843</v>
+        <v>0.3671875</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.0861244019138756</v>
+        <v>0.0815450643776824</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01913875598086124</v>
+        <v>0.01716738197424893</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.06220095693779904</v>
+        <v>0.05579399141630902</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.138755980861244</v>
+        <v>0.1459227467811159</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.03349282296650718</v>
+        <v>0.03004291845493562</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1626794258373206</v>
+        <v>0.1545064377682404</v>
       </c>
       <c r="R7">
-        <v>0.05741626794258373</v>
+        <v>0.06008583690987124</v>
       </c>
       <c r="S7">
-        <v>0.4401913875598086</v>
+        <v>0.4549356223175965</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1363636363636364</v>
+        <v>0.1351931330472103</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01674641148325359</v>
+        <v>0.01502145922746781</v>
       </c>
       <c r="E8">
-        <v>0.002392344497607655</v>
+        <v>0.002145922746781116</v>
       </c>
       <c r="F8">
-        <v>0.04066985645933014</v>
+        <v>0.04291845493562232</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1028708133971292</v>
+        <v>0.09442060085836911</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01674641148325359</v>
+        <v>0.01716738197424893</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1961722488038277</v>
+        <v>0.1974248927038627</v>
       </c>
       <c r="R8">
-        <v>0.0645933014354067</v>
+        <v>0.06437768240343347</v>
       </c>
       <c r="S8">
-        <v>0.423444976076555</v>
+        <v>0.4313304721030043</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1159420289855072</v>
+        <v>0.1101321585903084</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02415458937198068</v>
+        <v>0.02202643171806168</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.06280193236714976</v>
+        <v>0.06607929515418502</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1304347826086956</v>
+        <v>0.1277533039647577</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02898550724637681</v>
+        <v>0.03083700440528634</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1400966183574879</v>
+        <v>0.1497797356828194</v>
       </c>
       <c r="R9">
-        <v>0.06280193236714976</v>
+        <v>0.05726872246696035</v>
       </c>
       <c r="S9">
-        <v>0.4347826086956522</v>
+        <v>0.4361233480176211</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1282271944922547</v>
+        <v>0.1268482490272373</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02925989672977625</v>
+        <v>0.02801556420233463</v>
       </c>
       <c r="E10">
-        <v>0.0008605851979345956</v>
+        <v>0.0007782101167315176</v>
       </c>
       <c r="F10">
-        <v>0.08433734939759036</v>
+        <v>0.08560311284046693</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.09982788296041308</v>
+        <v>0.09961089494163425</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02237521514629948</v>
+        <v>0.02101167315175097</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1944922547332186</v>
+        <v>0.1937743190661479</v>
       </c>
       <c r="R10">
-        <v>0.04905335628227195</v>
+        <v>0.0536964980544747</v>
       </c>
       <c r="S10">
-        <v>0.3915662650602409</v>
+        <v>0.3906614785992218</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1598746081504702</v>
+        <v>0.152112676056338</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08463949843260188</v>
+        <v>0.08732394366197183</v>
       </c>
       <c r="K11">
-        <v>0.2068965517241379</v>
+        <v>0.2</v>
       </c>
       <c r="L11">
-        <v>0.5329153605015674</v>
+        <v>0.5464788732394367</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01567398119122257</v>
+        <v>0.01408450704225352</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7542857142857143</v>
+        <v>0.7537688442211056</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2</v>
+        <v>0.2010050251256282</v>
       </c>
       <c r="K12">
-        <v>0.005714285714285714</v>
+        <v>0.005025125628140704</v>
       </c>
       <c r="L12">
-        <v>0.01714285714285714</v>
+        <v>0.01507537688442211</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02285714285714286</v>
+        <v>0.02512562814070352</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7804878048780488</v>
+        <v>0.7954545454545454</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2195121951219512</v>
+        <v>0.2045454545454546</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02369668246445497</v>
+        <v>0.02553191489361702</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1232227488151659</v>
+        <v>0.1191489361702128</v>
       </c>
       <c r="I15">
-        <v>0.07582938388625593</v>
+        <v>0.08085106382978724</v>
       </c>
       <c r="J15">
-        <v>0.3270142180094787</v>
+        <v>0.3276595744680851</v>
       </c>
       <c r="K15">
-        <v>0.08530805687203792</v>
+        <v>0.09361702127659574</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.009478672985781991</v>
+        <v>0.01276595744680851</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.04265402843601896</v>
+        <v>0.0425531914893617</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.3127962085308057</v>
+        <v>0.2978723404255319</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01357466063348416</v>
+        <v>0.01271186440677966</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1221719457013575</v>
+        <v>0.1440677966101695</v>
       </c>
       <c r="I16">
-        <v>0.1131221719457014</v>
+        <v>0.1101694915254237</v>
       </c>
       <c r="J16">
-        <v>0.4117647058823529</v>
+        <v>0.4067796610169492</v>
       </c>
       <c r="K16">
-        <v>0.1131221719457014</v>
+        <v>0.1101694915254237</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01357466063348416</v>
+        <v>0.01271186440677966</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.04977375565610859</v>
+        <v>0.04661016949152542</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.16289592760181</v>
+        <v>0.1567796610169492</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01678657074340528</v>
+        <v>0.02178649237472767</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1918465227817746</v>
+        <v>0.1895424836601307</v>
       </c>
       <c r="I17">
-        <v>0.1079136690647482</v>
+        <v>0.1089324618736384</v>
       </c>
       <c r="J17">
-        <v>0.4244604316546763</v>
+        <v>0.4183006535947713</v>
       </c>
       <c r="K17">
-        <v>0.08393285371702638</v>
+        <v>0.08496732026143791</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01918465227817746</v>
+        <v>0.01742919389978214</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.04556354916067146</v>
+        <v>0.04139433551198257</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1103117505995204</v>
+        <v>0.1176470588235294</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.04201680672268908</v>
+        <v>0.03597122302158273</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2184873949579832</v>
+        <v>0.223021582733813</v>
       </c>
       <c r="I18">
-        <v>0.1176470588235294</v>
+        <v>0.1079136690647482</v>
       </c>
       <c r="J18">
-        <v>0.3529411764705883</v>
+        <v>0.3597122302158273</v>
       </c>
       <c r="K18">
-        <v>0.09243697478991597</v>
+        <v>0.1079136690647482</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02521008403361345</v>
+        <v>0.02158273381294964</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.05882352941176471</v>
+        <v>0.06474820143884892</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.09243697478991597</v>
+        <v>0.07913669064748201</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01974723538704581</v>
+        <v>0.01997146932952924</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2109004739336493</v>
+        <v>0.2097004279600571</v>
       </c>
       <c r="I19">
-        <v>0.08530805687203792</v>
+        <v>0.08416547788873038</v>
       </c>
       <c r="J19">
-        <v>0.3625592417061612</v>
+        <v>0.3616262482168331</v>
       </c>
       <c r="K19">
-        <v>0.1279620853080569</v>
+        <v>0.1283880171184023</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02132701421800948</v>
+        <v>0.02068473609129814</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.07109004739336493</v>
+        <v>0.07489300998573467</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1011058451816746</v>
+        <v>0.1005706134094151</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Lindenwood_A.xlsx
+++ b/team_specific_matrix/Lindenwood_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1898016997167139</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="C2">
-        <v>0.5864022662889519</v>
+        <v>0.5854341736694678</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.0169971671388102</v>
+        <v>0.01680672268907563</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1359773371104816</v>
+        <v>0.134453781512605</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.07082152974504249</v>
+        <v>0.07282913165266107</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.04545454545454546</v>
+        <v>0.04504504504504504</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.004545454545454545</v>
+        <v>0.004504504504504504</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7181818181818181</v>
+        <v>0.7207207207207207</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2318181818181818</v>
+        <v>0.2297297297297297</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.01886792452830189</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6792452830188679</v>
+        <v>0.6607142857142857</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3018867924528302</v>
+        <v>0.3035714285714285</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.0546875</v>
+        <v>0.0532319391634981</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01171875</v>
+        <v>0.01140684410646388</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.05859375</v>
+        <v>0.05703422053231939</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.234375</v>
+        <v>0.2395437262357414</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.03125</v>
+        <v>0.03041825095057034</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1953125</v>
+        <v>0.1939163498098859</v>
       </c>
       <c r="R6">
-        <v>0.046875</v>
+        <v>0.04562737642585551</v>
       </c>
       <c r="S6">
-        <v>0.3671875</v>
+        <v>0.3688212927756654</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.0815450643776824</v>
+        <v>0.08230452674897119</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01716738197424893</v>
+        <v>0.01646090534979424</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.05579399141630902</v>
+        <v>0.05349794238683128</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1459227467811159</v>
+        <v>0.1440329218106996</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.03004291845493562</v>
+        <v>0.02880658436213992</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1545064377682404</v>
+        <v>0.1563786008230453</v>
       </c>
       <c r="R7">
-        <v>0.06008583690987124</v>
+        <v>0.05761316872427984</v>
       </c>
       <c r="S7">
-        <v>0.4549356223175965</v>
+        <v>0.4609053497942387</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1351931330472103</v>
+        <v>0.1315240083507307</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01502145922746781</v>
+        <v>0.01461377870563674</v>
       </c>
       <c r="E8">
-        <v>0.002145922746781116</v>
+        <v>0.00208768267223382</v>
       </c>
       <c r="F8">
-        <v>0.04291845493562232</v>
+        <v>0.04175365344467641</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.09442060085836911</v>
+        <v>0.09812108559498957</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01716738197424893</v>
+        <v>0.01878914405010438</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1974248927038627</v>
+        <v>0.1920668058455115</v>
       </c>
       <c r="R8">
-        <v>0.06437768240343347</v>
+        <v>0.06680584551148225</v>
       </c>
       <c r="S8">
-        <v>0.4313304721030043</v>
+        <v>0.4342379958246347</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1101321585903084</v>
+        <v>0.1092436974789916</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02202643171806168</v>
+        <v>0.02100840336134454</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.06607929515418502</v>
+        <v>0.06302521008403361</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1277533039647577</v>
+        <v>0.1260504201680672</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.03083700440528634</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1497797356828194</v>
+        <v>0.1470588235294118</v>
       </c>
       <c r="R9">
-        <v>0.05726872246696035</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="S9">
-        <v>0.4361233480176211</v>
+        <v>0.4453781512605042</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1268482490272373</v>
+        <v>0.1231231231231231</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02801556420233463</v>
+        <v>0.02927927927927928</v>
       </c>
       <c r="E10">
-        <v>0.0007782101167315176</v>
+        <v>0.0007507507507507507</v>
       </c>
       <c r="F10">
-        <v>0.08560311284046693</v>
+        <v>0.08483483483483484</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.09961089494163425</v>
+        <v>0.1013513513513514</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02101167315175097</v>
+        <v>0.02102102102102102</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1937743190661479</v>
+        <v>0.1951951951951952</v>
       </c>
       <c r="R10">
-        <v>0.0536964980544747</v>
+        <v>0.0518018018018018</v>
       </c>
       <c r="S10">
-        <v>0.3906614785992218</v>
+        <v>0.3926426426426426</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.152112676056338</v>
+        <v>0.1559139784946237</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08732394366197183</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="K11">
-        <v>0.2</v>
+        <v>0.2016129032258064</v>
       </c>
       <c r="L11">
-        <v>0.5464788732394367</v>
+        <v>0.5456989247311828</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01408450704225352</v>
+        <v>0.01344086021505376</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7537688442211056</v>
+        <v>0.7451923076923077</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2010050251256282</v>
+        <v>0.2067307692307692</v>
       </c>
       <c r="K12">
-        <v>0.005025125628140704</v>
+        <v>0.004807692307692308</v>
       </c>
       <c r="L12">
-        <v>0.01507537688442211</v>
+        <v>0.01442307692307692</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02512562814070352</v>
+        <v>0.02884615384615385</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7954545454545454</v>
+        <v>0.7659574468085106</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2045454545454546</v>
+        <v>0.2340425531914894</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02553191489361702</v>
+        <v>0.02489626556016597</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1191489361702128</v>
+        <v>0.1161825726141079</v>
       </c>
       <c r="I15">
-        <v>0.08085106382978724</v>
+        <v>0.08298755186721991</v>
       </c>
       <c r="J15">
-        <v>0.3276595744680851</v>
+        <v>0.3236514522821577</v>
       </c>
       <c r="K15">
-        <v>0.09361702127659574</v>
+        <v>0.09958506224066389</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01276595744680851</v>
+        <v>0.01244813278008299</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.0425531914893617</v>
+        <v>0.04149377593360996</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2978723404255319</v>
+        <v>0.2987551867219917</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01271186440677966</v>
+        <v>0.01255230125523013</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1440677966101695</v>
+        <v>0.1422594142259414</v>
       </c>
       <c r="I16">
-        <v>0.1101694915254237</v>
+        <v>0.1129707112970711</v>
       </c>
       <c r="J16">
-        <v>0.4067796610169492</v>
+        <v>0.401673640167364</v>
       </c>
       <c r="K16">
-        <v>0.1101694915254237</v>
+        <v>0.1171548117154812</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01271186440677966</v>
+        <v>0.01255230125523013</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.04661016949152542</v>
+        <v>0.04602510460251046</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1567796610169492</v>
+        <v>0.1548117154811715</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02178649237472767</v>
+        <v>0.02320675105485232</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1895424836601307</v>
+        <v>0.1877637130801688</v>
       </c>
       <c r="I17">
-        <v>0.1089324618736384</v>
+        <v>0.1075949367088608</v>
       </c>
       <c r="J17">
-        <v>0.4183006535947713</v>
+        <v>0.4177215189873418</v>
       </c>
       <c r="K17">
-        <v>0.08496732026143791</v>
+        <v>0.08649789029535865</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01742919389978214</v>
+        <v>0.0189873417721519</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.04139433551198257</v>
+        <v>0.04219409282700422</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1176470588235294</v>
+        <v>0.1160337552742616</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.03597122302158273</v>
+        <v>0.0352112676056338</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.223021582733813</v>
+        <v>0.2183098591549296</v>
       </c>
       <c r="I18">
-        <v>0.1079136690647482</v>
+        <v>0.1056338028169014</v>
       </c>
       <c r="J18">
-        <v>0.3597122302158273</v>
+        <v>0.3661971830985916</v>
       </c>
       <c r="K18">
-        <v>0.1079136690647482</v>
+        <v>0.1126760563380282</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02158273381294964</v>
+        <v>0.02112676056338028</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.06474820143884892</v>
+        <v>0.06338028169014084</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.07913669064748201</v>
+        <v>0.07746478873239436</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01997146932952924</v>
+        <v>0.02059025394646534</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2097004279600571</v>
+        <v>0.209334248455731</v>
       </c>
       <c r="I19">
-        <v>0.08416547788873038</v>
+        <v>0.08647906657515443</v>
       </c>
       <c r="J19">
-        <v>0.3616262482168331</v>
+        <v>0.3603294440631434</v>
       </c>
       <c r="K19">
-        <v>0.1283880171184023</v>
+        <v>0.1276595744680851</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02068473609129814</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.07489300998573467</v>
+        <v>0.07343857240905971</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1005706134094151</v>
+        <v>0.1008922443376802</v>
       </c>
     </row>
   </sheetData>
